--- a/data/trans_bre/CONS_ANTIDE-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANTIDE-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>2,59</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>198,04%</t>
+          <t>54,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>62,71%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>161,47%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>46,46%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>61,27%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>76,94%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,28</t>
+          <t>-0,46; 1,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,08</t>
+          <t>-1,22; 4,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,03</t>
+          <t>0,07; 3,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,87</t>
+          <t>-0,9; 5,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,38; 745,64</t>
+          <t>-36,02; 255,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 145,77</t>
+          <t>-38,57; 219,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 218,91</t>
+          <t>-14,92; 684,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 282,75</t>
+          <t>-13,83; 137,07</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>6,97</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,84%</t>
+          <t>91,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>140,93%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>54,11%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>126,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>102,2%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>99,74%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 3,15</t>
+          <t>-0,38; 4,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 11,17</t>
+          <t>0,83; 6,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,44</t>
+          <t>-1,02; 2,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,22</t>
+          <t>2,18; 10,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,35; 341,97</t>
+          <t>-18,15; 390,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,09; 307,21</t>
+          <t>3,22; 491,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 304,51</t>
+          <t>-47,64; 283,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 347,57</t>
+          <t>23,61; 286,65</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>7,79</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>5,41</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>130,31%</t>
+          <t>78,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>335,88%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>93,18%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>57,17%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>113,08%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>81,86%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 8,14</t>
+          <t>-0,43; 4,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 17,11</t>
+          <t>2,92; 15,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 9,04</t>
+          <t>-0,82; 7,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 4,22</t>
+          <t>-3,8; 15,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 429,33</t>
+          <t>-18,57; 260,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 263,79</t>
+          <t>53,13; 2240,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,83; 293,3</t>
+          <t>-29,96; 417,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 254,48</t>
+          <t>-42,54; 240,67</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,06</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>14,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>303,03%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>257,41%</t>
+          <t>54,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>276,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>58,84%</t>
+          <t>257,88%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,81</t>
+          <t>-0,55; 3,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,6; 21,5</t>
+          <t>-2,56; 6,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,48</t>
+          <t>2,79; 7,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,5</t>
+          <t>8,31; 21,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>101,34; 725,25</t>
+          <t>-15,65; 131,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>105,48; 541,91</t>
+          <t>-54,09; 169,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,11; 172,45</t>
+          <t>86,19; 674,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 167,43</t>
+          <t>98,39; 563,65</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>5,31</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>12,88</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>185,35%</t>
+          <t>335,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>109,47%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>156,28%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>303,92%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>144,95%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>245,12%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,56</t>
+          <t>2,69; 6,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 21,39</t>
+          <t>-0,59; 9,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,49</t>
+          <t>0,51; 7,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,3</t>
+          <t>4,99; 21,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,93; 660,57</t>
+          <t>88,38; 1094,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,19; 1068,88</t>
+          <t>-7,82; 304,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>56,57; 300,76</t>
+          <t>-4,69; 561,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>77,62; 636,2</t>
+          <t>40,47; 1171,92</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>101,2%</t>
+          <t>537,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>366,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>238,1%</t>
+          <t>237,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>958,94%</t>
+          <t>40,88%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 23,51</t>
+          <t>1,54; 5,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 8,34</t>
+          <t>2,66; 9,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,82</t>
+          <t>-4,72; 38,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,6</t>
+          <t>-4,72; 8,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>-5,98; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17,0; 2454,7</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-60,23; 411,43</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>37,61; 771,45</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>139,09; —</t>
+          <t>-55,64; 504,72</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>172,65%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>120,2%</t>
+          <t>138,14%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>116,65%</t>
+          <t>152,13%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>113,24%</t>
+          <t>120,01%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,53</t>
+          <t>1,18; 2,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,68</t>
+          <t>1,95; 5,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,06</t>
+          <t>1,91; 4,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,89</t>
+          <t>4,69; 9,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,09; 298,71</t>
+          <t>47,65; 157,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>68,68; 188,43</t>
+          <t>57,84; 258,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>77,27; 167,82</t>
+          <t>73,67; 263,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>62,29; 177,21</t>
+          <t>68,85; 189,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ANTIDE-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANTIDE-Clase-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>52,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,93</t>
+          <t>-0,48; 1,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 4,17</t>
+          <t>-1,15; 4,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 5,49</t>
+          <t>-0,64; 5,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,02; 255,3</t>
+          <t>-37,89; 243,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,57; 219,8</t>
+          <t>-28,23; 281,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 137,07</t>
+          <t>-10,39; 138,72</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>117,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,03</t>
+          <t>0,3; 4,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 6,63</t>
+          <t>0,77; 6,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 10,85</t>
+          <t>2,79; 11,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 390,36</t>
+          <t>2,74; 447,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 491,59</t>
+          <t>1,67; 456,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,61; 286,65</t>
+          <t>30,3; 312,81</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>78,42%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,82</t>
+          <t>-0,38; 5,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 15,02</t>
+          <t>3,01; 14,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 15,69</t>
+          <t>-4,87; 15,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 260,23</t>
+          <t>-18,06; 248,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,13; 2240,72</t>
+          <t>50,49; 1848,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,54; 240,67</t>
+          <t>-48,48; 242,48</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,12</t>
+          <t>-1,2; 2,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,09</t>
+          <t>-3,05; 6,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 21,37</t>
+          <t>8,2; 21,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 131,52</t>
+          <t>-29,62; 100,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,09; 169,67</t>
+          <t>-51,06; 169,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>98,39; 563,65</t>
+          <t>95,4; 573,97</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>335,5%</t>
+          <t>414,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,94</t>
+          <t>3,27; 7,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 9,34</t>
+          <t>-0,46; 9,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 21,18</t>
+          <t>5,65; 21,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,38; 1094,6</t>
+          <t>133,34; 1178,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 304,62</t>
+          <t>-3,87; 303,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,47; 1171,92</t>
+          <t>37,05; 1305,17</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>537,44%</t>
+          <t>215,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,18</t>
+          <t>-0,32; 3,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,18</t>
+          <t>2,01; 9,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 8,89</t>
+          <t>-4,66; 9,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,98; —</t>
+          <t>-47,27; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,0; 2454,7</t>
+          <t>11,49; 2397,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,64; 504,72</t>
+          <t>-57,86; 347,65</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,77</t>
+          <t>0,95; 2,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,9</t>
+          <t>1,86; 5,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 9,35</t>
+          <t>4,88; 9,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,65; 157,8</t>
+          <t>39,52; 144,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>57,84; 258,05</t>
+          <t>63,07; 259,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>68,85; 189,57</t>
+          <t>69,81; 200,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ANTIDE-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANTIDE-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,6</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>72,24%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>46,46%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>161,47%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>52,34%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>62,71%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>161,47%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>46,46%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,87; 4,92</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 5,61</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 3,67</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-0,48; 1,71</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 4,43</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 3,67</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 5,61</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-24,78; 315,02</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-10,39; 138,72</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-14,92; 684,37</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-37,89; 243,37</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-28,23; 281,89</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-14,92; 684,37</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-10,39; 138,72</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,97</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,38</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,97</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>147,16%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>126,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>54,11%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>117,14%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>140,93%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>54,11%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>126,0%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,83; 6,45</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 11,16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 2,79</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,3; 4,6</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 6,55</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 2,79</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 11,16</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>8,74; 481,3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30,3; 312,81</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-47,64; 283,19</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>2,74; 447,05</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 456,13</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-47,64; 283,19</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>30,3; 312,81</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,04</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,41</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,83</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,79</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,41</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>114,89%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>57,17%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>93,18%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>74,43%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>335,88%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>93,18%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>57,17%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,09; 10,4</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 15,78</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 7,91</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-0,38; 5,05</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 14,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 7,91</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 15,78</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-5,25; 372,7</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-48,48; 242,48</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-29,96; 417,16</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-18,06; 248,98</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>50,49; 1848,67</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-29,96; 417,16</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-48,48; 242,48</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,76</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14,08</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,43</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>14,08</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>109,59%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>257,88%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>276,87%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>12,79%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>54,79%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>276,87%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>257,88%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,11; 7,47</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8,2; 21,34</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 7,86</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-1,2; 2,34</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 6,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 7,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>8,2; 21,34</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>34,5; 232,33</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>95,4; 573,97</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>86,19; 674,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-29,62; 100,55</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-51,06; 169,02</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>86,19; 674,69</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>95,4; 573,97</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,41</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,88</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>5,33</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,31</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,75</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>12,88</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>172,87%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>303,92%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>156,28%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>414,92%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>109,47%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>156,28%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>303,92%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>3,68; 10,79</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,65; 21,96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 7,02</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>3,27; 7,49</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 9,19</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 7,02</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,65; 21,96</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>41,2; 424,12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37,05; 1305,17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 561,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>133,34; 1178,52</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-3,87; 303,12</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 561,7</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>37,05; 1305,17</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>6,05</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>2,07</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,46</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>323,49%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>40,88%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>237,54%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>215,23%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>366,44%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>237,54%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>40,88%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,42; 8,79</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 9,22</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-4,72; 38,27</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>-0,32; 3,66</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 9,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 38,27</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,66; 9,22</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>-4,19; 2148,02</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-57,86; 347,65</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>-47,27; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>11,49; 2397,41</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-57,86; 347,65</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,74</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,27</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>7,16</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>135,66%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>120,01%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>152,13%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>84,1%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>138,14%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>152,13%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>120,01%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>3,41; 5,96</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 9,94</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 4,2</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>0,95; 2,51</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 5,88</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 4,2</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>4,88; 9,94</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>76,52; 202,93</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>69,81; 200,18</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>73,67; 263,85</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>39,52; 144,64</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>63,07; 259,67</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>73,67; 263,85</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>69,81; 200,18</t>
         </is>
       </c>
     </row>
